--- a/api명세서.xlsx
+++ b/api명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\jackpot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F5C3FDC-DFBF-4A85-8BF5-60EA6A8E47D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D244921-BFD4-4F28-8FC7-48DC53EDE80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B32CCE6-9CD8-4C6E-AEB1-7A0CC812E8FA}"/>
+    <workbookView xWindow="10965" yWindow="4185" windowWidth="11520" windowHeight="11295" xr2:uid="{4B32CCE6-9CD8-4C6E-AEB1-7A0CC812E8FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
   <dimension ref="B3:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/api명세서.xlsx
+++ b/api명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jackpot\10_jackpot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F5C3FDC-DFBF-4A85-8BF5-60EA6A8E47D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48541EA-80D9-4306-9DF6-B5D58BCDDF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B32CCE6-9CD8-4C6E-AEB1-7A0CC812E8FA}"/>
+    <workbookView xWindow="6940" yWindow="650" windowWidth="13180" windowHeight="9060" xr2:uid="{4B32CCE6-9CD8-4C6E-AEB1-7A0CC812E8FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,81 @@
   </si>
   <si>
     <t>patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">String </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴint userIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PathVariable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiparFile</t>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,19 +569,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DAF3EE-7F92-4C85-B113-8683B184138A}">
-  <dimension ref="B3:D15"/>
+  <dimension ref="B3:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="E15" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="41.25" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -516,8 +593,14 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -527,93 +610,180 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D25" t="s">
         <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="I26" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/api명세서.xlsx
+++ b/api명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\jackpot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D244921-BFD4-4F28-8FC7-48DC53EDE80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B3FBAD-6555-448A-B118-066B981FBA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10965" yWindow="4185" windowWidth="11520" windowHeight="11295" xr2:uid="{4B32CCE6-9CD8-4C6E-AEB1-7A0CC812E8FA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B32CCE6-9CD8-4C6E-AEB1-7A0CC812E8FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,12 +154,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -176,8 +182,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DAF3EE-7F92-4C85-B113-8683B184138A}">
-  <dimension ref="B3:D15"/>
+  <dimension ref="B3:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -506,7 +515,7 @@
     <col min="3" max="3" width="41.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -517,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -527,8 +536,9 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -539,7 +549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -549,8 +559,9 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -560,8 +571,9 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -572,7 +584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -583,7 +595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -594,7 +606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -605,7 +617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>21</v>
       </c>

--- a/api명세서.xlsx
+++ b/api명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\jackpot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonsh\OneDrive\문서\GitHub\10_jackpot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D244921-BFD4-4F28-8FC7-48DC53EDE80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A2B0F8-BE94-40D7-B985-F5A699823185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10965" yWindow="4185" windowWidth="11520" windowHeight="11295" xr2:uid="{4B32CCE6-9CD8-4C6E-AEB1-7A0CC812E8FA}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{4B32CCE6-9CD8-4C6E-AEB1-7A0CC812E8FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/posts/search?q=""&amp;page=""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/posts/{userIdx}?page=""</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,6 +126,10 @@
   </si>
   <si>
     <t>patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/posts/search/{userIdx}?q=""&amp;page=""</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,17 +496,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DAF3EE-7F92-4C85-B113-8683B184138A}">
   <dimension ref="B3:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="41.25" customWidth="1"/>
+    <col min="3" max="3" width="41.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -517,7 +517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -539,7 +539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -550,74 +550,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
         <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/api명세서.xlsx
+++ b/api명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\jackpot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B3FBAD-6555-448A-B118-066B981FBA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCCEDD0-D922-4C6E-8D37-B895E6796B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B32CCE6-9CD8-4C6E-AEB1-7A0CC812E8FA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,14 @@
   </si>
   <si>
     <t>patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 이미지 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/posts/img/display/{imgName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DAF3EE-7F92-4C85-B113-8683B184138A}">
-  <dimension ref="B3:E15"/>
+  <dimension ref="B3:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -595,36 +603,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
       </c>
       <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>23</v>
       </c>
     </row>

--- a/api명세서.xlsx
+++ b/api명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\jackpot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonsh\OneDrive\문서\GitHub\10_jackpot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCCEDD0-D922-4C6E-8D37-B895E6796B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29DCBBD-B562-42AB-912D-A9552BA649C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B32CCE6-9CD8-4C6E-AEB1-7A0CC812E8FA}"/>
+    <workbookView xWindow="5568" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{4B32CCE6-9CD8-4C6E-AEB1-7A0CC812E8FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -513,17 +513,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DAF3EE-7F92-4C85-B113-8683B184138A}">
   <dimension ref="B3:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="41.25" customWidth="1"/>
+    <col min="3" max="3" width="41.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -534,7 +534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -546,7 +546,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -557,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -569,7 +569,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -581,7 +581,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -591,8 +591,9 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -602,8 +603,9 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>24</v>
       </c>
@@ -613,8 +615,9 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -625,7 +628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -636,7 +639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>21</v>
       </c>

--- a/api명세서.xlsx
+++ b/api명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonsh\OneDrive\문서\GitHub\10_jackpot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29DCBBD-B562-42AB-912D-A9552BA649C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02EA86A-1888-4873-B8D6-A87530BBBC05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5568" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{4B32CCE6-9CD8-4C6E-AEB1-7A0CC812E8FA}"/>
   </bookViews>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/posts/like</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게시글 좋아요 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +134,10 @@
   </si>
   <si>
     <t>/posts/img/display/{imgName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/posts/emoji</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +514,7 @@
   <dimension ref="B3:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:E16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -607,10 +607,10 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -622,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -630,10 +630,10 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -641,13 +641,13 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
